--- a/resources/experiment 2/metrics/MAPE/incidence/Angina (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Angina (INC).xlsx
@@ -465,10 +465,10 @@
         <v>4906221268062289</v>
       </c>
       <c r="C2" t="n">
-        <v>4906221268062288</v>
+        <v>4906221268062289</v>
       </c>
       <c r="D2" t="n">
-        <v>4906221268062288</v>
+        <v>4906221268062289</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11316608815253.05</v>
+        <v>2150667348993121</v>
       </c>
       <c r="C3" t="n">
-        <v>11316608815253.05</v>
+        <v>2418470148766574</v>
       </c>
       <c r="D3" t="n">
-        <v>11316608815253.05</v>
+        <v>3968113234703352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>568761271528253.1</v>
+        <v>5647969298398.135</v>
       </c>
       <c r="C4" t="n">
-        <v>568711767667602.9</v>
+        <v>5440060958795.636</v>
       </c>
       <c r="D4" t="n">
-        <v>568711767667602.9</v>
+        <v>4380997681772726</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>860099983511163.6</v>
+        <v>346179985220238.2</v>
       </c>
       <c r="C5" t="n">
-        <v>886743323823846.4</v>
+        <v>221583517801467.2</v>
       </c>
       <c r="D5" t="n">
-        <v>886743323823846.4</v>
+        <v>566257974029574.8</v>
       </c>
     </row>
   </sheetData>
